--- a/src/main/webapp/attachment/REPORT_HIS.xlsx
+++ b/src/main/webapp/attachment/REPORT_HIS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>订单号</t>
   </si>
@@ -150,27 +150,56 @@
     <t>实际生产进度</t>
   </si>
   <si>
+    <t>工艺次品数</t>
+  </si>
+  <si>
+    <t>布料次品数</t>
+  </si>
+  <si>
+    <t>后道次品数</t>
+  </si>
+  <si>
+    <t>车缝次品数</t>
+  </si>
+  <si>
+    <t>后道丢失数</t>
+  </si>
+  <si>
+    <t>其他原因次品数</t>
+  </si>
+  <si>
     <t>MR补入订单完成日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术完成日期(仅大货)</t>
   </si>
   <si>
     <t>合同交期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术完成日期(仅大货)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否翻单</t>
+  </si>
+  <si>
+    <t>是否特殊面料采购</t>
   </si>
   <si>
     <t>建议投料日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否生产大货</t>
+  </si>
+  <si>
+    <t>不生产大货原因</t>
+  </si>
+  <si>
+    <t>不生产大货原因-其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,18 +238,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,10 +282,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="31" thickBot="1">
+    <row r="1" spans="1:58" ht="31" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,100 +650,133 @@
         <v>16</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>46</v>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/attachment/REPORT_HIS.xlsx
+++ b/src/main/webapp/attachment/REPORT_HIS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14355"/>
   </bookViews>
   <sheets>
     <sheet name="历史订单分析报表" sheetId="7" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>负责销售</t>
   </si>
   <si>
-    <t>工厂</t>
-  </si>
-  <si>
     <t>TPE</t>
   </si>
   <si>
@@ -193,6 +190,10 @@
   </si>
   <si>
     <t>不生产大货原因-其他</t>
+  </si>
+  <si>
+    <t>匠人坊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -290,10 +291,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -598,12 +599,12 @@
   <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:58" ht="31" thickBot="1">
+    <row r="1" spans="1:58" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,148 +636,148 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
